--- a/ProjektScreenshots/Tabellen.xlsx
+++ b/ProjektScreenshots/Tabellen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spenglergasse\5.Semester\POS\C# Workspace\09_Projekt\FoodShopWebsite\ProjektScreenshots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Spengergasse\POS\6.Semester C#\FoodShopWebsite\ProjektScreenshots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC893AEB-74B1-4692-B24D-1BC19542566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1385B4D2-891D-4BBA-BDEB-A645BA0D9E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
